--- a/runs/osu1089/ncbi_mapping/ncbi_submission_data/osu1089_SRA_metadata.xlsx
+++ b/runs/osu1089/ncbi_mapping/ncbi_submission_data/osu1089_SRA_metadata.xlsx
@@ -1329,12 +1329,17 @@
     <row r="2">
       <c r="A2" s="18" t="inlineStr">
         <is>
-          <t>E232.NC.NO20</t>
+          <t>E232.NC.NO20-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>E232.NC.NO20_Machida18S_osu1089</t>
+          <t>E232.NC.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the : Run OSU1089</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr">
@@ -1369,7 +1374,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K2" s="11" t="inlineStr">
@@ -1379,24 +1384,29 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>MP_E232_NC_NO20_R1.fastq.gz</t>
+          <t>E232.NC.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>MP_E232_NC_NO20_R2.fastq.gz</t>
+          <t>E232.NC.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>E301.NC.NO20</t>
+          <t>E301.NC.NO20-01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>E301.NC.NO20_Machida18S_osu1089</t>
+          <t>E301.NC.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the : Run OSU1089</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr">
@@ -1431,7 +1441,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K3" s="11" t="inlineStr">
@@ -1441,12 +1451,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>MP_E301_NC_NO20_R1.fastq.gz</t>
+          <t>E301.NC.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>MP_E301_NC_NO20_R2.fastq.gz</t>
+          <t>E301.NC.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1503,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K4" s="11" t="inlineStr">
@@ -1503,12 +1513,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>MP_Camel_R1.fastq.gz</t>
+          <t>osu1089.Machida18S.POSITIVE.Camel_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>MP_Camel_R2.fastq.gz</t>
+          <t>osu1089.Machida18S.POSITIVE.Camel_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1565,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K5" s="11" t="inlineStr">
@@ -1565,24 +1575,29 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>MP_Ferret_R1.fastq.gz</t>
+          <t>osu1089.Machida18S.POSITIVE.Ferret_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>MP_Ferret_R2.fastq.gz</t>
+          <t>osu1089.Machida18S.POSITIVE.Ferret_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>E233.1B.NO20</t>
+          <t>E233.1B.NO20-01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>E233.1B.NO20_Machida18S_osu1089</t>
+          <t>E233.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU1089</t>
         </is>
       </c>
       <c r="D6" s="11" t="inlineStr">
@@ -1617,7 +1632,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K6" s="11" t="inlineStr">
@@ -1627,24 +1642,29 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>MP_E233_1B_NO20_R1.fastq.gz</t>
+          <t>E233.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>MP_E233_1B_NO20_R2.fastq.gz</t>
+          <t>E233.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>E233.2B.NO20</t>
+          <t>E233.2B.NO20-01</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>E233.2B.NO20_Machida18S_osu1089</t>
+          <t>E233.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU1089</t>
         </is>
       </c>
       <c r="D7" s="11" t="inlineStr">
@@ -1679,7 +1699,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K7" s="11" t="inlineStr">
@@ -1689,24 +1709,29 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>MP_E233_2B_NO20_R1.fastq.gz</t>
+          <t>E233.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>MP_E233_2B_NO20_R2.fastq.gz</t>
+          <t>E233.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>E234.1B.NO20</t>
+          <t>E234.1B.NO20-01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>E234.1B.NO20_Machida18S_osu1089</t>
+          <t>E234.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU1089</t>
         </is>
       </c>
       <c r="D8" s="11" t="inlineStr">
@@ -1741,7 +1766,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K8" s="11" t="inlineStr">
@@ -1751,24 +1776,29 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>MP_E234_1B_NO20_R1.fastq.gz</t>
+          <t>E234.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>MP_E234_1B_NO20_R2.fastq.gz</t>
+          <t>E234.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>E234.2B.NO20</t>
+          <t>E234.2B.NO20-01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>E234.2B.NO20_Machida18S_osu1089</t>
+          <t>E234.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU1089</t>
         </is>
       </c>
       <c r="D9" s="11" t="inlineStr">
@@ -1803,7 +1833,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K9" s="11" t="inlineStr">
@@ -1813,24 +1843,29 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>MP_E234_2B_NO20_R1.fastq.gz</t>
+          <t>E234.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>MP_E234_2B_NO20_R2.fastq.gz</t>
+          <t>E234.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>E234.3B.NO20</t>
+          <t>E234.3B.NO20-01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>E234.3B.NO20_Machida18S_osu1089</t>
+          <t>E234.3B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU1089</t>
         </is>
       </c>
       <c r="D10" s="11" t="inlineStr">
@@ -1865,7 +1900,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K10" s="11" t="inlineStr">
@@ -1875,24 +1910,29 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>MP_E234_3B_NO20_R1.fastq.gz</t>
+          <t>E234.3B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>MP_E234_3B_NO20_R2.fastq.gz</t>
+          <t>E234.3B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>E237.1B.NO20</t>
+          <t>E237.1B.NO20-01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>E237.1B.NO20_Machida18S_osu1089</t>
+          <t>E237.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU1089</t>
         </is>
       </c>
       <c r="D11" s="11" t="inlineStr">
@@ -1927,7 +1967,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K11" s="11" t="inlineStr">
@@ -1937,24 +1977,29 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>MP_E237_1B_NO20_R1.fastq.gz</t>
+          <t>E237.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>MP_E237_1B_NO20_R2.fastq.gz</t>
+          <t>E237.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>E237.2B.NO20</t>
+          <t>E237.2B.NO20-01</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>E237.2B.NO20_Machida18S_osu1089</t>
+          <t>E237.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU1089</t>
         </is>
       </c>
       <c r="D12" s="11" t="inlineStr">
@@ -1989,7 +2034,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K12" s="11" t="inlineStr">
@@ -1999,24 +2044,29 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>MP_E237_2B_NO20_R1.fastq.gz</t>
+          <t>E237.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>MP_E237_2B_NO20_R2.fastq.gz</t>
+          <t>E237.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>E238.1B.NO20</t>
+          <t>E238.1B.NO20-01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>E238.1B.NO20_Machida18S_osu1089</t>
+          <t>E238.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU1089</t>
         </is>
       </c>
       <c r="D13" s="11" t="inlineStr">
@@ -2051,7 +2101,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K13" s="11" t="inlineStr">
@@ -2061,24 +2111,29 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>MP_E238_1B_NO20_R1.fastq.gz</t>
+          <t>E238.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>MP_E238_1B_NO20_R2.fastq.gz</t>
+          <t>E238.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>E238.2B.NO20</t>
+          <t>E238.2B.NO20-01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>E238.2B.NO20_Machida18S_osu1089</t>
+          <t>E238.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU1089</t>
         </is>
       </c>
       <c r="D14" s="11" t="inlineStr">
@@ -2113,7 +2168,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K14" s="11" t="inlineStr">
@@ -2123,24 +2178,29 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>MP_E238_2B_NO20_R1.fastq.gz</t>
+          <t>E238.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>MP_E238_2B_NO20_R2.fastq.gz</t>
+          <t>E238.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>E239.1B.NO20</t>
+          <t>E239.1B.NO20-01</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>E239.1B.NO20_Machida18S_osu1089</t>
+          <t>E239.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU1089</t>
         </is>
       </c>
       <c r="D15" s="11" t="inlineStr">
@@ -2175,7 +2235,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K15" s="11" t="inlineStr">
@@ -2185,24 +2245,29 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>MP_E239_1B_NO20_R1.fastq.gz</t>
+          <t>E239.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>MP_E239_1B_NO20_R2.fastq.gz</t>
+          <t>E239.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>E239.2B.NO20</t>
+          <t>E239.2B.NO20-01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>E239.2B.NO20_Machida18S_osu1089</t>
+          <t>E239.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU1089</t>
         </is>
       </c>
       <c r="D16" s="11" t="inlineStr">
@@ -2237,7 +2302,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K16" s="11" t="inlineStr">
@@ -2247,24 +2312,29 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>MP_E239_2B_NO20_R1.fastq.gz</t>
+          <t>E239.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>MP_E239_2B_NO20_R2.fastq.gz</t>
+          <t>E239.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>E240.1B.NO20</t>
+          <t>E240.1B.NO20-01</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>E240.1B.NO20_Machida18S_osu1089</t>
+          <t>E240.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU1089</t>
         </is>
       </c>
       <c r="D17" s="11" t="inlineStr">
@@ -2299,7 +2369,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K17" s="11" t="inlineStr">
@@ -2309,24 +2379,29 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>MP_E240_1B_NO20_R1.fastq.gz</t>
+          <t>E240.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>MP_E240_1B_NO20_R2.fastq.gz</t>
+          <t>E240.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>E240.2B.NO20</t>
+          <t>E240.2B.NO20-01</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E240.2B.NO20_Machida18S_osu1089</t>
+          <t>E240.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU1089</t>
         </is>
       </c>
       <c r="D18" s="11" t="inlineStr">
@@ -2361,7 +2436,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K18" s="11" t="inlineStr">
@@ -2371,24 +2446,29 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>MP_E240_2B_NO20_R1.fastq.gz</t>
+          <t>E240.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>MP_E240_2B_NO20_R2.fastq.gz</t>
+          <t>E240.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>E241.1B.NO20</t>
+          <t>E241.1B.NO20-01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>E241.1B.NO20_Machida18S_osu1089</t>
+          <t>E241.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU1089</t>
         </is>
       </c>
       <c r="D19" s="11" t="inlineStr">
@@ -2423,7 +2503,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K19" s="11" t="inlineStr">
@@ -2433,24 +2513,29 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>MP_E241_1B_NO20_R1.fastq.gz</t>
+          <t>E241.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>MP_E241_1B_NO20_R2.fastq.gz</t>
+          <t>E241.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>E241.2B.NO20</t>
+          <t>E241.2B.NO20-01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E241.2B.NO20_Machida18S_osu1089</t>
+          <t>E241.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU1089</t>
         </is>
       </c>
       <c r="D20" s="11" t="inlineStr">
@@ -2485,7 +2570,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K20" s="11" t="inlineStr">
@@ -2495,24 +2580,29 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>MP_E241_2B_NO20_R1.fastq.gz</t>
+          <t>E241.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>MP_E241_2B_NO20_R2.fastq.gz</t>
+          <t>E241.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>E242.1B.NO20</t>
+          <t>E242.1B.NO20-01</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>E242.1B.NO20_Machida18S_osu1089</t>
+          <t>E242.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU1089</t>
         </is>
       </c>
       <c r="D21" s="11" t="inlineStr">
@@ -2547,7 +2637,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K21" s="11" t="inlineStr">
@@ -2557,24 +2647,29 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>MP_E242_1B_NO20_R1.fastq.gz</t>
+          <t>E242.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>MP_E242_1B_NO20_R2.fastq.gz</t>
+          <t>E242.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>E242.2B.NO20</t>
+          <t>E242.2B.NO20-01</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>E242.2B.NO20_Machida18S_osu1089</t>
+          <t>E242.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU1089</t>
         </is>
       </c>
       <c r="D22" s="11" t="inlineStr">
@@ -2609,7 +2704,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K22" s="11" t="inlineStr">
@@ -2619,24 +2714,29 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>MP_E242_2B_NO20_R1.fastq.gz</t>
+          <t>E242.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>MP_E242_2B_NO20_R2.fastq.gz</t>
+          <t>E242.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>E249.1B.NO20</t>
+          <t>E249.1B.NO20-01</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>E249.1B.NO20_Machida18S_osu1089</t>
+          <t>E249.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU1089</t>
         </is>
       </c>
       <c r="D23" s="11" t="inlineStr">
@@ -2671,7 +2771,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K23" s="11" t="inlineStr">
@@ -2681,24 +2781,29 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>MP_E249_1B_NO20_R1.fastq.gz</t>
+          <t>E249.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>MP_E249_1B_NO20_R2.fastq.gz</t>
+          <t>E249.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>E249.2B.NO20</t>
+          <t>E249.2B.NO20-01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>E249.2B.NO20_Machida18S_osu1089</t>
+          <t>E249.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU1089</t>
         </is>
       </c>
       <c r="D24" s="11" t="inlineStr">
@@ -2733,7 +2838,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K24" s="11" t="inlineStr">
@@ -2743,24 +2848,29 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>MP_E249_2B_NO20_R1.fastq.gz</t>
+          <t>E249.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>MP_E249_2B_NO20_R2.fastq.gz</t>
+          <t>E249.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>E250.1B.NO20</t>
+          <t>E250.1B.NO20-01</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>E250.1B.NO20_Machida18S_osu1089</t>
+          <t>E250.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU1089</t>
         </is>
       </c>
       <c r="D25" s="11" t="inlineStr">
@@ -2795,7 +2905,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K25" s="11" t="inlineStr">
@@ -2805,24 +2915,29 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>MP_E250_1B_NO20_R1.fastq.gz</t>
+          <t>E250.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>MP_E250_1B_NO20_R2.fastq.gz</t>
+          <t>E250.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>E250.2B.NO20</t>
+          <t>E250.2B.NO20-01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>E250.2B.NO20_Machida18S_osu1089</t>
+          <t>E250.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU1089</t>
         </is>
       </c>
       <c r="D26" s="11" t="inlineStr">
@@ -2857,7 +2972,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K26" s="11" t="inlineStr">
@@ -2867,24 +2982,29 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>MP_E250_2B_NO20_R1.fastq.gz</t>
+          <t>E250.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>MP_E250_2B_NO20_R2.fastq.gz</t>
+          <t>E250.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>E252.1B.NO20</t>
+          <t>E252.1B.NO20-01</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>E252.1B.NO20_Machida18S_osu1089</t>
+          <t>E252.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Chukchi Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D27" s="11" t="inlineStr">
@@ -2919,7 +3039,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K27" s="11" t="inlineStr">
@@ -2929,24 +3049,29 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>MP_E252_1B_NO20_R1.fastq.gz</t>
+          <t>E252.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>MP_E252_1B_NO20_R2.fastq.gz</t>
+          <t>E252.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>E265.1B.NO20</t>
+          <t>E265.1B.NO20-01</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>E265.1B.NO20_Machida18S_osu1089</t>
+          <t>E265.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Chukchi Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D28" s="11" t="inlineStr">
@@ -2981,7 +3106,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K28" s="11" t="inlineStr">
@@ -2991,24 +3116,29 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>MP_E265_1B_NO20_R1.fastq.gz</t>
+          <t>E265.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>MP_E265_1B_NO20_R2.fastq.gz</t>
+          <t>E265.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>E265.2B.NO20</t>
+          <t>E265.2B.NO20-01</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>E265.2B.NO20_Machida18S_osu1089</t>
+          <t>E265.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Chukchi Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D29" s="11" t="inlineStr">
@@ -3043,7 +3173,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K29" s="11" t="inlineStr">
@@ -3053,24 +3183,29 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>MP_E265_2B_NO20_R1.fastq.gz</t>
+          <t>E265.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>MP_E265_2B_NO20_R2.fastq.gz</t>
+          <t>E265.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>E266.1B.NO20</t>
+          <t>E266.1B.NO20-01</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>E266.1B.NO20_Machida18S_osu1089</t>
+          <t>E266.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Chukchi Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D30" s="11" t="inlineStr">
@@ -3105,7 +3240,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K30" s="11" t="inlineStr">
@@ -3115,24 +3250,29 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>MP_E266_1B_NO20_R1.fastq.gz</t>
+          <t>E266.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>MP_E266_1B_NO20_R2.fastq.gz</t>
+          <t>E266.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>E269.1B.NO20</t>
+          <t>E269.1B.NO20-01</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E269.1B.NO20_Machida18S_osu1089</t>
+          <t>E269.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D31" s="11" t="inlineStr">
@@ -3167,7 +3307,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K31" s="11" t="inlineStr">
@@ -3177,24 +3317,29 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>MP_E269_1B_NO20_R1.fastq.gz</t>
+          <t>E269.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>MP_E269_1B_NO20_R2.fastq.gz</t>
+          <t>E269.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>E269.2B.NO20</t>
+          <t>E269.2B.NO20-01</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>E269.2B.NO20_Machida18S_osu1089</t>
+          <t>E269.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D32" s="11" t="inlineStr">
@@ -3229,7 +3374,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K32" s="11" t="inlineStr">
@@ -3239,24 +3384,29 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>MP_E269_2B_NO20_R1.fastq.gz</t>
+          <t>E269.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>MP_E269_2B_NO20_R2.fastq.gz</t>
+          <t>E269.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>E270.1B.NO20</t>
+          <t>E270.1B.NO20-01</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>E270.1B.NO20_Machida18S_osu1089</t>
+          <t>E270.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D33" s="11" t="inlineStr">
@@ -3291,7 +3441,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K33" s="11" t="inlineStr">
@@ -3301,24 +3451,29 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>MP_E270_1B_NO20_R1.fastq.gz</t>
+          <t>E270.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>MP_E270_1B_NO20_R2.fastq.gz</t>
+          <t>E270.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>E270.2B.NO20</t>
+          <t>E270.2B.NO20-01</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E270.2B.NO20_Machida18S_osu1089</t>
+          <t>E270.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D34" s="11" t="inlineStr">
@@ -3353,7 +3508,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K34" s="11" t="inlineStr">
@@ -3363,24 +3518,29 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>MP_E270_2B_NO20_R1.fastq.gz</t>
+          <t>E270.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>MP_E270_2B_NO20_R2.fastq.gz</t>
+          <t>E270.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>E272.1B.NO20</t>
+          <t>E272.1B.NO20-01</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>E272.1B.NO20_Machida18S_osu1089</t>
+          <t>E272.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D35" s="11" t="inlineStr">
@@ -3415,7 +3575,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K35" s="11" t="inlineStr">
@@ -3425,24 +3585,29 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>MP_E272_1B_NO20_R1.fastq.gz</t>
+          <t>E272.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>MP_E272_1B_NO20_R2.fastq.gz</t>
+          <t>E272.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>E273.1B.NO20</t>
+          <t>E273.1B.NO20-01</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>E273.1B.NO20_Machida18S_osu1089</t>
+          <t>E273.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D36" s="11" t="inlineStr">
@@ -3477,7 +3642,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K36" s="11" t="inlineStr">
@@ -3487,24 +3652,29 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>MP_E273_1B_NO20_R1.fastq.gz</t>
+          <t>E273.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>MP_E273_1B_NO20_R2.fastq.gz</t>
+          <t>E273.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>E273.2B.NO20</t>
+          <t>E273.2B.NO20-01</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>E273.2B.NO20_Machida18S_osu1089</t>
+          <t>E273.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D37" s="11" t="inlineStr">
@@ -3539,7 +3709,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K37" s="11" t="inlineStr">
@@ -3549,24 +3719,29 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>MP_E273_2B_NO20_R1.fastq.gz</t>
+          <t>E273.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>MP_E273_2B_NO20_R2.fastq.gz</t>
+          <t>E273.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>E274.1B.NO20</t>
+          <t>E274.1B.NO20-01</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>E274.1B.NO20_Machida18S_osu1089</t>
+          <t>E274.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D38" s="11" t="inlineStr">
@@ -3601,7 +3776,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K38" s="11" t="inlineStr">
@@ -3611,24 +3786,29 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>MP_E274_1B_NO20_R1.fastq.gz</t>
+          <t>E274.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>MP_E274_1B_NO20_R2.fastq.gz</t>
+          <t>E274.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>E274.2B.NO20</t>
+          <t>E274.2B.NO20-01</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>E274.2B.NO20_Machida18S_osu1089</t>
+          <t>E274.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D39" s="11" t="inlineStr">
@@ -3663,7 +3843,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K39" s="11" t="inlineStr">
@@ -3673,24 +3853,29 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>MP_E274_2B_NO20_R1.fastq.gz</t>
+          <t>E274.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>MP_E274_2B_NO20_R2.fastq.gz</t>
+          <t>E274.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>E275.1B.NO20</t>
+          <t>E275.1B.NO20-01</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>E275.1B.NO20_Machida18S_osu1089</t>
+          <t>E275.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D40" s="11" t="inlineStr">
@@ -3725,7 +3910,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K40" s="11" t="inlineStr">
@@ -3735,24 +3920,29 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>MP_E275_1B_NO20_R1.fastq.gz</t>
+          <t>E275.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>MP_E275_1B_NO20_R2.fastq.gz</t>
+          <t>E275.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>E275.2B.NO20</t>
+          <t>E275.2B.NO20-01</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>E275.2B.NO20_Machida18S_osu1089</t>
+          <t>E275.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D41" s="11" t="inlineStr">
@@ -3787,7 +3977,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K41" s="11" t="inlineStr">
@@ -3797,24 +3987,29 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>MP_E275_2B_NO20_R1.fastq.gz</t>
+          <t>E275.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>MP_E275_2B_NO20_R2.fastq.gz</t>
+          <t>E275.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>E276.1B.NO20</t>
+          <t>E276.1B.NO20-01</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>E276.1B.NO20_Machida18S_osu1089</t>
+          <t>E276.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D42" s="11" t="inlineStr">
@@ -3849,7 +4044,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K42" s="11" t="inlineStr">
@@ -3859,24 +4054,29 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>MP_E276_1B_NO20_R1.fastq.gz</t>
+          <t>E276.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>MP_E276_1B_NO20_R2.fastq.gz</t>
+          <t>E276.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>E276.2B.NO20</t>
+          <t>E276.2B.NO20-01</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>E276.2B.NO20_Machida18S_osu1089</t>
+          <t>E276.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D43" s="11" t="inlineStr">
@@ -3911,7 +4111,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K43" s="11" t="inlineStr">
@@ -3921,24 +4121,29 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>MP_E276_2B_NO20_R1.fastq.gz</t>
+          <t>E276.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>MP_E276_2B_NO20_R2.fastq.gz</t>
+          <t>E276.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>E277.1B.NO20</t>
+          <t>E277.1B.NO20-01</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>E277.1B.NO20_Machida18S_osu1089</t>
+          <t>E277.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D44" s="11" t="inlineStr">
@@ -3973,7 +4178,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K44" s="11" t="inlineStr">
@@ -3983,24 +4188,29 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>MP_E277_1B_NO20_R1.fastq.gz</t>
+          <t>E277.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>MP_E277_1B_NO20_R2.fastq.gz</t>
+          <t>E277.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>E277.2B.NO20</t>
+          <t>E277.2B.NO20-01</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>E277.2B.NO20_Machida18S_osu1089</t>
+          <t>E277.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D45" s="11" t="inlineStr">
@@ -4035,7 +4245,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K45" s="11" t="inlineStr">
@@ -4045,24 +4255,29 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>MP_E277_2B_NO20_R1.fastq.gz</t>
+          <t>E277.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>MP_E277_2B_NO20_R2.fastq.gz</t>
+          <t>E277.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>E277.3B.NO20</t>
+          <t>E277.3B.NO20-01</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>E277.3B.NO20_Machida18S_osu1089</t>
+          <t>E277.3B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D46" s="11" t="inlineStr">
@@ -4097,7 +4312,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K46" s="11" t="inlineStr">
@@ -4107,24 +4322,29 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>MP_E277_3B_NO20_R1.fastq.gz</t>
+          <t>E277.3B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>MP_E277_3B_NO20_R2.fastq.gz</t>
+          <t>E277.3B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>E278.1B.NO20</t>
+          <t>E278.1B.NO20-01</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>E278.1B.NO20_Machida18S_osu1089</t>
+          <t>E278.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D47" s="11" t="inlineStr">
@@ -4159,7 +4379,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K47" s="11" t="inlineStr">
@@ -4169,24 +4389,29 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>MP_E278_1B_NO20_R1.fastq.gz</t>
+          <t>E278.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>MP_E278_1B_NO20_R2.fastq.gz</t>
+          <t>E278.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>E278.2B.NO20</t>
+          <t>E278.2B.NO20-01</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>E278.2B.NO20_Machida18S_osu1089</t>
+          <t>E278.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D48" s="11" t="inlineStr">
@@ -4221,7 +4446,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K48" s="11" t="inlineStr">
@@ -4231,24 +4456,29 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>MP_E278_2B_NO20_R1.fastq.gz</t>
+          <t>E278.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>MP_E278_2B_NO20_R2.fastq.gz</t>
+          <t>E278.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>E278.3B.NO20</t>
+          <t>E278.3B.NO20-01</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>E278.3B.NO20_Machida18S_osu1089</t>
+          <t>E278.3B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D49" s="11" t="inlineStr">
@@ -4283,7 +4513,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K49" s="11" t="inlineStr">
@@ -4293,24 +4523,29 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>MP_E278_3B_NO20_R1.fastq.gz</t>
+          <t>E278.3B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>MP_E278_3B_NO20_R2.fastq.gz</t>
+          <t>E278.3B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>E279.1B.NO20</t>
+          <t>E279.1B.NO20-01</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>E279.1B.NO20_Machida18S_osu1089</t>
+          <t>E279.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D50" s="11" t="inlineStr">
@@ -4345,7 +4580,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K50" s="11" t="inlineStr">
@@ -4355,24 +4590,29 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>MP_E279_1B_NO20_R1.fastq.gz</t>
+          <t>E279.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>MP_E279_1B_NO20_R2.fastq.gz</t>
+          <t>E279.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>E279.2B.NO20</t>
+          <t>E279.2B.NO20-01</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>E279.2B.NO20_Machida18S_osu1089</t>
+          <t>E279.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D51" s="11" t="inlineStr">
@@ -4407,7 +4647,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K51" s="11" t="inlineStr">
@@ -4417,24 +4657,29 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>MP_E279_2B_NO20_R1.fastq.gz</t>
+          <t>E279.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>MP_E279_2B_NO20_R2.fastq.gz</t>
+          <t>E279.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>E280.1B.NO20</t>
+          <t>E280.1B.NO20-01</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>E280.1B.NO20_Machida18S_osu1089</t>
+          <t>E280.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D52" s="11" t="inlineStr">
@@ -4469,7 +4714,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K52" s="11" t="inlineStr">
@@ -4479,24 +4724,29 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>MP_E280_1B_NO20_R1.fastq.gz</t>
+          <t>E280.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>MP_E280_1B_NO20_R2.fastq.gz</t>
+          <t>E280.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>E280.2B.NO20</t>
+          <t>E280.2B.NO20-01</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>E280.2B.NO20_Machida18S_osu1089</t>
+          <t>E280.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D53" s="11" t="inlineStr">
@@ -4531,7 +4781,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K53" s="11" t="inlineStr">
@@ -4541,24 +4791,29 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>MP_E280_2B_NO20_R1.fastq.gz</t>
+          <t>E280.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>MP_E280_2B_NO20_R2.fastq.gz</t>
+          <t>E280.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>E280.3B.NO20</t>
+          <t>E280.3B.NO20-01</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>E280.3B.NO20_Machida18S_osu1089</t>
+          <t>E280.3B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D54" s="11" t="inlineStr">
@@ -4593,7 +4848,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K54" s="11" t="inlineStr">
@@ -4603,24 +4858,29 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>MP_E280_3B_NO20_R1.fastq.gz</t>
+          <t>E280.3B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>MP_E280_3B_NO20_R2.fastq.gz</t>
+          <t>E280.3B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>E281.1B.NO20</t>
+          <t>E281.1B.NO20-01</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>E281.1B.NO20_Machida18S_osu1089</t>
+          <t>E281.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D55" s="11" t="inlineStr">
@@ -4655,7 +4915,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K55" s="11" t="inlineStr">
@@ -4665,24 +4925,29 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>MP_E281_1B_NO20_R1.fastq.gz</t>
+          <t>E281.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>MP_E281_1B_NO20_R2.fastq.gz</t>
+          <t>E281.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>E281.2B.NO20</t>
+          <t>E281.2B.NO20-01</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>E281.2B.NO20_Machida18S_osu1089</t>
+          <t>E281.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D56" s="11" t="inlineStr">
@@ -4717,7 +4982,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K56" s="11" t="inlineStr">
@@ -4727,24 +4992,29 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>MP_E281_2B_NO20_R1.fastq.gz</t>
+          <t>E281.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>MP_E281_2B_NO20_R2.fastq.gz</t>
+          <t>E281.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>E281.3B.NO20</t>
+          <t>E281.3B.NO20-01</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>E281.3B.NO20_Machida18S_osu1089</t>
+          <t>E281.3B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D57" s="11" t="inlineStr">
@@ -4779,7 +5049,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K57" s="11" t="inlineStr">
@@ -4789,24 +5059,29 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>MP_E281_3B_NO20_R1.fastq.gz</t>
+          <t>E281.3B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>MP_E281_3B_NO20_R2.fastq.gz</t>
+          <t>E281.3B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>E282.1B.NO20</t>
+          <t>E282.1B.NO20-01</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>E282.1B.NO20_Machida18S_osu1089</t>
+          <t>E282.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D58" s="11" t="inlineStr">
@@ -4841,7 +5116,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K58" s="11" t="inlineStr">
@@ -4851,24 +5126,29 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>MP_E282_1B_NO20_R1.fastq.gz</t>
+          <t>E282.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>MP_E282_1B_NO20_R2.fastq.gz</t>
+          <t>E282.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>E282.2B.NO20</t>
+          <t>E282.2B.NO20-01</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>E282.2B.NO20_Machida18S_osu1089</t>
+          <t>E282.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D59" s="11" t="inlineStr">
@@ -4903,7 +5183,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K59" s="11" t="inlineStr">
@@ -4913,24 +5193,29 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>MP_E282_2B_NO20_R1.fastq.gz</t>
+          <t>E282.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>MP_E282_2B_NO20_R2.fastq.gz</t>
+          <t>E282.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>E282.3B.NO20</t>
+          <t>E282.3B.NO20-01</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>E282.3B.NO20_Machida18S_osu1089</t>
+          <t>E282.3B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D60" s="11" t="inlineStr">
@@ -4965,7 +5250,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K60" s="11" t="inlineStr">
@@ -4975,24 +5260,29 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>MP_E282_3B_NO20_R1.fastq.gz</t>
+          <t>E282.3B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>MP_E282_3B_NO20_R2.fastq.gz</t>
+          <t>E282.3B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>E283.1B.NO20</t>
+          <t>E283.1B.NO20-01</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>E283.1B.NO20_Machida18S_osu1089</t>
+          <t>E283.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D61" s="11" t="inlineStr">
@@ -5027,7 +5317,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K61" s="11" t="inlineStr">
@@ -5037,24 +5327,29 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>MP_E283_1B_NO20_R1.fastq.gz</t>
+          <t>E283.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>MP_E283_1B_NO20_R2.fastq.gz</t>
+          <t>E283.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>E283.2B.NO20</t>
+          <t>E283.2B.NO20-01</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>E283.2B.NO20_Machida18S_osu1089</t>
+          <t>E283.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D62" s="11" t="inlineStr">
@@ -5089,7 +5384,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K62" s="11" t="inlineStr">
@@ -5099,24 +5394,29 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>MP_E283_2B_NO20_R1.fastq.gz</t>
+          <t>E283.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>MP_E283_2B_NO20_R2.fastq.gz</t>
+          <t>E283.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>E283.3B.NO20</t>
+          <t>E283.3B.NO20-01</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>E283.3B.NO20_Machida18S_osu1089</t>
+          <t>E283.3B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D63" s="11" t="inlineStr">
@@ -5151,7 +5451,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K63" s="11" t="inlineStr">
@@ -5161,24 +5461,29 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>MP_E283_3B_NO20_R1.fastq.gz</t>
+          <t>E283.3B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>MP_E283_3B_NO20_R2.fastq.gz</t>
+          <t>E283.3B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>E284.1B.NO20</t>
+          <t>E284.1B.NO20-01</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>E284.1B.NO20_Machida18S_osu1089</t>
+          <t>E284.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D64" s="11" t="inlineStr">
@@ -5213,7 +5518,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K64" s="11" t="inlineStr">
@@ -5223,24 +5528,29 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>MP_E284_1B_NO20_R1.fastq.gz</t>
+          <t>E284.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>MP_E284_1B_NO20_R2.fastq.gz</t>
+          <t>E284.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>E284.2B.NO20</t>
+          <t>E284.2B.NO20-01</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>E284.2B.NO20_Machida18S_osu1089</t>
+          <t>E284.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D65" s="11" t="inlineStr">
@@ -5275,7 +5585,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K65" s="11" t="inlineStr">
@@ -5285,24 +5595,29 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>MP_E284_2B_NO20_R1.fastq.gz</t>
+          <t>E284.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>MP_E284_2B_NO20_R2.fastq.gz</t>
+          <t>E284.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>E284.3B.NO20</t>
+          <t>E284.3B.NO20-01</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>E284.3B.NO20_Machida18S_osu1089</t>
+          <t>E284.3B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D66" s="11" t="inlineStr">
@@ -5337,7 +5652,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K66" s="11" t="inlineStr">
@@ -5347,24 +5662,29 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>MP_E284_3B_NO20_R1.fastq.gz</t>
+          <t>E284.3B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>MP_E284_3B_NO20_R2.fastq.gz</t>
+          <t>E284.3B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>E285.1B.NO20</t>
+          <t>E285.1B.NO20-01</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>E285.1B.NO20_Machida18S_osu1089</t>
+          <t>E285.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D67" s="11" t="inlineStr">
@@ -5399,7 +5719,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K67" s="11" t="inlineStr">
@@ -5409,24 +5729,29 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>MP_E285_1B_NO20_R1.fastq.gz</t>
+          <t>E285.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>MP_E285_1B_NO20_R2.fastq.gz</t>
+          <t>E285.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>E285.2B.NO20</t>
+          <t>E285.2B.NO20-01</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>E285.2B.NO20_Machida18S_osu1089</t>
+          <t>E285.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D68" s="11" t="inlineStr">
@@ -5461,7 +5786,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K68" s="11" t="inlineStr">
@@ -5471,24 +5796,29 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>MP_E285_2B_NO20_R1.fastq.gz</t>
+          <t>E285.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>MP_E285_2B_NO20_R2.fastq.gz</t>
+          <t>E285.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>E285.3B.NO20</t>
+          <t>E285.3B.NO20-01</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>E285.3B.NO20_Machida18S_osu1089</t>
+          <t>E285.3B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D69" s="11" t="inlineStr">
@@ -5523,7 +5853,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K69" s="11" t="inlineStr">
@@ -5533,24 +5863,29 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>MP_E285_3B_NO20_R1.fastq.gz</t>
+          <t>E285.3B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>MP_E285_3B_NO20_R2.fastq.gz</t>
+          <t>E285.3B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>E286.1B.NO20</t>
+          <t>E286.1B.NO20-01</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>E286.1B.NO20_Machida18S_osu1089</t>
+          <t>E286.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D70" s="11" t="inlineStr">
@@ -5585,7 +5920,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K70" s="11" t="inlineStr">
@@ -5595,24 +5930,29 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>MP_E286_1B_NO20_R1.fastq.gz</t>
+          <t>E286.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>MP_E286_1B_NO20_R2.fastq.gz</t>
+          <t>E286.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>E286.2B.NO20</t>
+          <t>E286.2B.NO20-01</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>E286.2B.NO20_Machida18S_osu1089</t>
+          <t>E286.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D71" s="11" t="inlineStr">
@@ -5647,7 +5987,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K71" s="11" t="inlineStr">
@@ -5657,24 +5997,29 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>MP_E286_2B_NO20_R1.fastq.gz</t>
+          <t>E286.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>MP_E286_2B_NO20_R2.fastq.gz</t>
+          <t>E286.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>E286.3B.NO20</t>
+          <t>E286.3B.NO20-01</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>E286.3B.NO20_Machida18S_osu1089</t>
+          <t>E286.3B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D72" s="11" t="inlineStr">
@@ -5709,7 +6054,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K72" s="11" t="inlineStr">
@@ -5719,24 +6064,29 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>MP_E286_3B_NO20_R1.fastq.gz</t>
+          <t>E286.3B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>MP_E286_3B_NO20_R2.fastq.gz</t>
+          <t>E286.3B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>E291.1B.NO20</t>
+          <t>E291.1B.NO20-01</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>E291.1B.NO20_Machida18S_osu1089</t>
+          <t>E291.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D73" s="11" t="inlineStr">
@@ -5771,7 +6121,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K73" s="11" t="inlineStr">
@@ -5781,24 +6131,29 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>MP_E291_1B_NO20_R1.fastq.gz</t>
+          <t>E291.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>MP_E291_1B_NO20_R2.fastq.gz</t>
+          <t>E291.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>E291.2B.NO20</t>
+          <t>E291.2B.NO20-01</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>E291.2B.NO20_Machida18S_osu1089</t>
+          <t>E291.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D74" s="11" t="inlineStr">
@@ -5833,7 +6188,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K74" s="11" t="inlineStr">
@@ -5843,24 +6198,29 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>MP_E291_2B_NO20_R1.fastq.gz</t>
+          <t>E291.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>MP_E291_2B_NO20_R2.fastq.gz</t>
+          <t>E291.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>E291.3B.NO20</t>
+          <t>E291.3B.NO20-01</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>E291.3B.NO20_Machida18S_osu1089</t>
+          <t>E291.3B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D75" s="11" t="inlineStr">
@@ -5895,7 +6255,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K75" s="11" t="inlineStr">
@@ -5905,24 +6265,29 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>MP_E291_3B_NO20_R1.fastq.gz</t>
+          <t>E291.3B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>MP_E291_3B_NO20_R2.fastq.gz</t>
+          <t>E291.3B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>E292.1B.NO20</t>
+          <t>E292.1B.NO20-01</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>E292.1B.NO20_Machida18S_osu1089</t>
+          <t>E292.1B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D76" s="11" t="inlineStr">
@@ -5957,7 +6322,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K76" s="11" t="inlineStr">
@@ -5967,24 +6332,29 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>MP_E292_1B_NO20_R1.fastq.gz</t>
+          <t>E292.1B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>MP_E292_1B_NO20_R2.fastq.gz</t>
+          <t>E292.1B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>E292.2B.NO20</t>
+          <t>E292.2B.NO20-01</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>E292.2B.NO20_Machida18S_osu1089</t>
+          <t>E292.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D77" s="11" t="inlineStr">
@@ -6019,7 +6389,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K77" s="11" t="inlineStr">
@@ -6029,24 +6399,29 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>MP_E292_2B_NO20_R1.fastq.gz</t>
+          <t>E292.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>MP_E292_2B_NO20_R2.fastq.gz</t>
+          <t>E292.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>E292.3B.NO20</t>
+          <t>E292.3B.NO20-01</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>E292.3B.NO20_Machida18S_osu1089</t>
+          <t>E292.3B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D78" s="11" t="inlineStr">
@@ -6081,7 +6456,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K78" s="11" t="inlineStr">
@@ -6091,24 +6466,29 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>MP_E292_3B_NO20_R1.fastq.gz</t>
+          <t>E292.3B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>MP_E292_3B_NO20_R2.fastq.gz</t>
+          <t>E292.3B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>E293.2B.NO20</t>
+          <t>E293.2B.NO20-01</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>E293.2B.NO20_Machida18S_osu1089</t>
+          <t>E293.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D79" s="11" t="inlineStr">
@@ -6143,7 +6523,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K79" s="11" t="inlineStr">
@@ -6153,24 +6533,29 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>MP_E293_2B_NO20_R1.fastq.gz</t>
+          <t>E293.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>MP_E293_2B_NO20_R2.fastq.gz</t>
+          <t>E293.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>E294.2B.NO20</t>
+          <t>E294.2B.NO20-01</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>E294.2B.NO20_Machida18S_osu1089</t>
+          <t>E294.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D80" s="11" t="inlineStr">
@@ -6205,7 +6590,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K80" s="11" t="inlineStr">
@@ -6215,24 +6600,29 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>MP_E294_2B_NO20_R1.fastq.gz</t>
+          <t>E294.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>MP_E294_2B_NO20_R2.fastq.gz</t>
+          <t>E294.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>E294.3B.NO20</t>
+          <t>E294.3B.NO20-01</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>E294.3B.NO20_Machida18S_osu1089</t>
+          <t>E294.3B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D81" s="11" t="inlineStr">
@@ -6267,7 +6657,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K81" s="11" t="inlineStr">
@@ -6277,24 +6667,29 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>MP_E294_3B_NO20_R1.fastq.gz</t>
+          <t>E294.3B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>MP_E294_3B_NO20_R2.fastq.gz</t>
+          <t>E294.3B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>E297.2B.NO20</t>
+          <t>E297.2B.NO20-01</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>E297.2B.NO20_Machida18S_osu1089</t>
+          <t>E297.2B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D82" s="11" t="inlineStr">
@@ -6329,7 +6724,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K82" s="11" t="inlineStr">
@@ -6339,24 +6734,29 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>MP_E297_2B_NO20_R1.fastq.gz</t>
+          <t>E297.2B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>MP_E297_2B_NO20_R2.fastq.gz</t>
+          <t>E297.2B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>E297.3B.NO20</t>
+          <t>E297.3B.NO20-01</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>E297.3B.NO20_Machida18S_osu1089</t>
+          <t>E297.3B.NO20-01_Machida18S_osu1089</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU1089</t>
         </is>
       </c>
       <c r="D83" s="11" t="inlineStr">
@@ -6391,7 +6791,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K83" s="11" t="inlineStr">
@@ -6401,12 +6801,12 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>MP_E297_3B_NO20_R1.fastq.gz</t>
+          <t>E297.3B.NO20-01_Machida18S_osu1089_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>MP_E297_3B_NO20_R2.fastq.gz</t>
+          <t>E297.3B.NO20-01_Machida18S_osu1089_R2.fastq.gz</t>
         </is>
       </c>
     </row>
